--- a/file/totalpeople.xlsx
+++ b/file/totalpeople.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\web_crawler\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CCD659-8E2F-4437-886C-68A290B7CF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C84D2B5-7C82-4A96-B0EB-E8B04E4B2307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8565" yWindow="1185" windowWidth="17535" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,690 +22,693 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="233">
   <si>
+    <t>TIME</t>
+  </si>
+  <si>
     <t>GYM</t>
   </si>
   <si>
     <t>SWIM</t>
   </si>
   <si>
+    <t>2023-01-30 09:38:19</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['98']</t>
+  </si>
+  <si>
+    <t>2023-01-30 09:45:18</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>2023-01-30 09:50:18</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>2023-01-30 09:55:19</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:00:19</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:05:19</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:10:19</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:15:19</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:20:20</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:25:20</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:30:20</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:35:20</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:40:21</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:45:21</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:50:21</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>2023-01-30 10:55:21</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:00:22</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:05:22</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:10:22</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:15:22</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:20:23</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:25:23</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:30:23</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:35:23</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:40:24</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:45:24</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:50:24</t>
+  </si>
+  <si>
+    <t>2023-01-30 11:55:24</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:00:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:05:25</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:10:25</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:15:25</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:20:26</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:25:26</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:30:26</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:35:26</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:40:27</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:45:27</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:50:27</t>
+  </si>
+  <si>
+    <t>2023-01-30 12:55:27</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:00:28</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:05:28</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:10:28</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:15:28</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:20:29</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:25:29</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:30:29</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:35:30</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:40:30</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:45:30</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:50:30</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>2023-01-30 13:55:31</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:00:31</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:10</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:15</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:20</t>
+  </si>
+  <si>
+    <t>['83']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:25</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:30</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:35</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:45</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:50</t>
+  </si>
+  <si>
+    <t>2023-01-30 14:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:00</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:10</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:15</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:20</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:30</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:35</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:45</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:50</t>
+  </si>
+  <si>
+    <t>2023-01-30 15:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:00</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:10</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:15</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:20</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:30</t>
+  </si>
+  <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:35</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:45</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:50</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>2023-01-30 16:55</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:00</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:10</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:15</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:20</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:30</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:35</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:45</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:50</t>
+  </si>
+  <si>
+    <t>2023-01-30 17:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:00</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:10</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:15</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:20</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:30</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:35</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:45</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:50</t>
+  </si>
+  <si>
+    <t>2023-01-30 18:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:00</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:10</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:15</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:20</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:30</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:35</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:45</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:50</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>2023-01-30 19:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:00</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:10</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:15</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:20</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:25</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:30</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:35</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:45</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:50</t>
+  </si>
+  <si>
+    <t>2023-01-30 20:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:00</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:05</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:10</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:15</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:20</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:25</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:30</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:35</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:40</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:45</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:50</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>2023-01-30 21:55</t>
+  </si>
+  <si>
+    <t>2023-01-30 22:00</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>['0']</t>
   </si>
   <si>
-    <t>2023-01-30 09:38:19</t>
-  </si>
-  <si>
-    <t>['26']</t>
-  </si>
-  <si>
-    <t>['98']</t>
-  </si>
-  <si>
-    <t>2023-01-30 09:45:18</t>
-  </si>
-  <si>
-    <t>['24']</t>
-  </si>
-  <si>
-    <t>['87']</t>
-  </si>
-  <si>
-    <t>2023-01-30 09:50:18</t>
-  </si>
-  <si>
-    <t>['19']</t>
-  </si>
-  <si>
-    <t>['79']</t>
-  </si>
-  <si>
-    <t>2023-01-30 09:55:19</t>
-  </si>
-  <si>
-    <t>['17']</t>
-  </si>
-  <si>
-    <t>['75']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:00:19</t>
-  </si>
-  <si>
-    <t>['15']</t>
-  </si>
-  <si>
-    <t>['66']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:05:19</t>
-  </si>
-  <si>
-    <t>['10']</t>
-  </si>
-  <si>
-    <t>['59']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:10:19</t>
-  </si>
-  <si>
-    <t>['5']</t>
-  </si>
-  <si>
-    <t>['50']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:15:19</t>
-  </si>
-  <si>
-    <t>['39']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:20:20</t>
-  </si>
-  <si>
-    <t>['6']</t>
-  </si>
-  <si>
-    <t>['21']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:25:20</t>
-  </si>
-  <si>
-    <t>['14']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:30:20</t>
-  </si>
-  <si>
-    <t>['13']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:35:20</t>
-  </si>
-  <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:40:21</t>
-  </si>
-  <si>
-    <t>['7']</t>
-  </si>
-  <si>
-    <t>['25']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:45:21</t>
-  </si>
-  <si>
-    <t>['30']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:50:21</t>
-  </si>
-  <si>
-    <t>['34']</t>
-  </si>
-  <si>
-    <t>2023-01-30 10:55:21</t>
-  </si>
-  <si>
-    <t>['8']</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:00:22</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:05:22</t>
-  </si>
-  <si>
-    <t>['43']</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:10:22</t>
-  </si>
-  <si>
-    <t>['47']</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:15:22</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:20:23</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:25:23</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:30:23</t>
-  </si>
-  <si>
-    <t>['49']</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:35:23</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:40:24</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:45:24</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:50:24</t>
-  </si>
-  <si>
-    <t>2023-01-30 11:55:24</t>
-  </si>
-  <si>
-    <t>['11']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:00:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:05:25</t>
-  </si>
-  <si>
-    <t>['12']</t>
-  </si>
-  <si>
-    <t>['55']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:10:25</t>
-  </si>
-  <si>
-    <t>['58']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:15:25</t>
-  </si>
-  <si>
-    <t>['18']</t>
-  </si>
-  <si>
-    <t>['62']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:20:26</t>
-  </si>
-  <si>
-    <t>['61']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:25:26</t>
-  </si>
-  <si>
-    <t>['64']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:30:26</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:35:26</t>
-  </si>
-  <si>
-    <t>['20']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:40:27</t>
-  </si>
-  <si>
-    <t>['65']</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:45:27</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:50:27</t>
-  </si>
-  <si>
-    <t>2023-01-30 12:55:27</t>
-  </si>
-  <si>
-    <t>['16']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:00:28</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:05:28</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:10:28</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:15:28</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:20:29</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:25:29</t>
-  </si>
-  <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:30:29</t>
-  </si>
-  <si>
-    <t>['69']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:35:30</t>
-  </si>
-  <si>
-    <t>['70']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:40:30</t>
-  </si>
-  <si>
-    <t>['73']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:45:30</t>
-  </si>
-  <si>
-    <t>['71']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:50:30</t>
-  </si>
-  <si>
-    <t>['78']</t>
-  </si>
-  <si>
-    <t>2023-01-30 13:55:31</t>
-  </si>
-  <si>
-    <t>['77']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:00:31</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:10</t>
-  </si>
-  <si>
-    <t>['76']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:15</t>
-  </si>
-  <si>
-    <t>['23']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:20</t>
-  </si>
-  <si>
-    <t>['83']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:25</t>
-  </si>
-  <si>
-    <t>['81']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:30</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:35</t>
-  </si>
-  <si>
-    <t>['82']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:45</t>
-  </si>
-  <si>
-    <t>['74']</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:50</t>
-  </si>
-  <si>
-    <t>2023-01-30 14:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:00</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:10</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:15</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:20</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:30</t>
-  </si>
-  <si>
-    <t>['68']</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:35</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:45</t>
-  </si>
-  <si>
-    <t>['63']</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:50</t>
-  </si>
-  <si>
-    <t>2023-01-30 15:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:00</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:10</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:15</t>
-  </si>
-  <si>
-    <t>['56']</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:20</t>
-  </si>
-  <si>
-    <t>['53']</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:30</t>
-  </si>
-  <si>
-    <t>['46']</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:35</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:45</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:50</t>
-  </si>
-  <si>
-    <t>['40']</t>
-  </si>
-  <si>
-    <t>2023-01-30 16:55</t>
-  </si>
-  <si>
-    <t>['42']</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:00</t>
-  </si>
-  <si>
-    <t>['41']</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:10</t>
-  </si>
-  <si>
-    <t>['32']</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:15</t>
-  </si>
-  <si>
-    <t>['28']</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:20</t>
-  </si>
-  <si>
-    <t>['29']</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:30</t>
-  </si>
-  <si>
-    <t>['36']</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:35</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:45</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:50</t>
-  </si>
-  <si>
-    <t>2023-01-30 17:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:00</t>
-  </si>
-  <si>
-    <t>['27']</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:10</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:15</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:20</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:30</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:35</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:45</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:50</t>
-  </si>
-  <si>
-    <t>2023-01-30 18:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:00</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:10</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:15</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:20</t>
-  </si>
-  <si>
-    <t>['33']</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:30</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:35</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:45</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:50</t>
-  </si>
-  <si>
-    <t>['44']</t>
-  </si>
-  <si>
-    <t>2023-01-30 19:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:00</t>
-  </si>
-  <si>
-    <t>['52']</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:10</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:15</t>
-  </si>
-  <si>
-    <t>['60']</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:20</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:25</t>
-  </si>
-  <si>
-    <t>['31']</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:30</t>
-  </si>
-  <si>
-    <t>['57']</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:35</t>
-  </si>
-  <si>
-    <t>['51']</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:45</t>
-  </si>
-  <si>
-    <t>['35']</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:50</t>
-  </si>
-  <si>
-    <t>2023-01-30 20:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:00</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:05</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:10</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:15</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:20</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:25</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:30</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:35</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:40</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:45</t>
-  </si>
-  <si>
-    <t>['4']</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:50</t>
-  </si>
-  <si>
-    <t>['2']</t>
-  </si>
-  <si>
-    <t>2023-01-30 21:55</t>
-  </si>
-  <si>
-    <t>2023-01-30 22:00</t>
-  </si>
-  <si>
-    <t>['1']</t>
-  </si>
-  <si>
     <t>2023-01-30 22:05</t>
   </si>
   <si>
@@ -716,10 +719,6 @@
   </si>
   <si>
     <t>2023-01-30 22:20</t>
-  </si>
-  <si>
-    <t>TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1068,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1080,25 +1079,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>232</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2726,56 +2725,56 @@
         <v>227</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" t="s">
         <v>228</v>
       </c>
-      <c r="B150" t="s">
-        <v>2</v>
-      </c>
       <c r="C150" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B152" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="C152" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
 </file>